--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderEmptyDataReader.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderEmptyDataReader.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -40,7 +40,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="164" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -127,10 +127,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -143,11 +143,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -446,13 +446,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q4"/>
+  <x:dimension ref="A1:L3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:12">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -472,13 +472,13 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
-      <x:c r="G3" s="2" t="n">
+    <x:row r="3" spans="1:12">
+      <x:c r="B3" s="2"/>
+      <x:c r="C3" s="2"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="2"/>
+      <x:c r="F3" s="2"/>
+      <x:c r="G3" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
